--- a/forms/warehouse/slow_moving_xls.xlsx
+++ b/forms/warehouse/slow_moving_xls.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
   <si>
     <t>NO</t>
   </si>
@@ -83,291 +83,549 @@
     <t>2020-02-26</t>
   </si>
   <si>
-    <t>1231149 - MLBL ENR NEW MAX PVCD LR6N</t>
+    <t>1231120 - MLBL FJ PRMUM(SLINK) PVCD LR6N</t>
+  </si>
+  <si>
+    <t>69,300</t>
+  </si>
+  <si>
+    <t>ISSUE (STOCK TAKE SHORTAGE)</t>
+  </si>
+  <si>
+    <t>49,200</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>1231146 - MLBL X POWER PVCD LR6N R1</t>
+  </si>
+  <si>
+    <t>69,000</t>
+  </si>
+  <si>
+    <t>400139 - JIANGSU JINGHONG NEW MATERIAL TECHNOLOGY CO., LTD</t>
+  </si>
+  <si>
+    <t>JHIV200330</t>
+  </si>
+  <si>
+    <t>150,000</t>
+  </si>
+  <si>
+    <t>2020-04-17</t>
+  </si>
+  <si>
+    <t>10,000</t>
+  </si>
+  <si>
+    <t>2020-04-22</t>
+  </si>
+  <si>
+    <t>1231161 - MLBL ENR NEW MAX EU PVCD LR6N</t>
+  </si>
+  <si>
+    <t>250,000</t>
+  </si>
+  <si>
+    <t>JHIV200421</t>
+  </si>
+  <si>
+    <t>11,550,000</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>700,000</t>
+  </si>
+  <si>
+    <t>1232003 - M LABEL FJ JE PET LR6N</t>
+  </si>
+  <si>
+    <t>400024 - SWARGA LOKA DINAMIKA, PT.</t>
+  </si>
+  <si>
+    <t>059713-21</t>
+  </si>
+  <si>
+    <t>100,000</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>19,000</t>
+  </si>
+  <si>
+    <t>2020-01-14</t>
+  </si>
+  <si>
+    <t>1241096 - M LABEL FJ G EU ARS PVC LR03N</t>
+  </si>
+  <si>
+    <t>15,000</t>
+  </si>
+  <si>
+    <t>IN1912T005</t>
+  </si>
+  <si>
+    <t>2019-12-27</t>
+  </si>
+  <si>
+    <t>2,000</t>
+  </si>
+  <si>
+    <t>2020-02-01</t>
+  </si>
+  <si>
+    <t>1241116 - M EVREADY SILVER PVCD LR03N R6</t>
+  </si>
+  <si>
+    <t>48,000</t>
+  </si>
+  <si>
+    <t>JHIV191111</t>
+  </si>
+  <si>
+    <t>2019-12-02</t>
+  </si>
+  <si>
+    <t>2020-01-03</t>
+  </si>
+  <si>
+    <t>1241117 - MLBL X POWER PVCD LR03N R1</t>
   </si>
   <si>
     <t>50,000</t>
   </si>
   <si>
-    <t>400139 - JIANGSU JINGHONG NEW MATERIAL TECHNOLOGY CO., LTD</t>
-  </si>
-  <si>
-    <t>JHIV190910</t>
-  </si>
-  <si>
-    <t>2019-10-02</t>
-  </si>
-  <si>
-    <t>350,000</t>
-  </si>
-  <si>
-    <t>2020-02-10</t>
-  </si>
-  <si>
-    <t>1241096 - M LABEL FJ G EU ARS PVC LR03N</t>
-  </si>
-  <si>
-    <t>15,000</t>
-  </si>
-  <si>
-    <t>IN1912T005</t>
-  </si>
-  <si>
-    <t>2019-12-27</t>
-  </si>
-  <si>
-    <t>2,000</t>
-  </si>
-  <si>
-    <t>2020-02-01</t>
-  </si>
-  <si>
-    <t>1241116 - M EVREADY SILVER PVCD LR03N R6</t>
-  </si>
-  <si>
-    <t>48,000</t>
-  </si>
-  <si>
-    <t>JHIV191111</t>
-  </si>
-  <si>
-    <t>2019-12-02</t>
-  </si>
-  <si>
-    <t>10,000</t>
-  </si>
-  <si>
-    <t>2020-01-03</t>
-  </si>
-  <si>
-    <t>2111370 - B CARD FJ PREMIUM LR03 4B R1</t>
-  </si>
-  <si>
-    <t>400024 - SWARGA LOKA DINAMIKA, PT.</t>
+    <t>110,000</t>
+  </si>
+  <si>
+    <t>2020-04-21</t>
+  </si>
+  <si>
+    <t>1242149 - M LABEL TOPRUN V PET LR03N R1</t>
+  </si>
+  <si>
+    <t>356,000</t>
+  </si>
+  <si>
+    <t>300,000</t>
+  </si>
+  <si>
+    <t>2020-04-27</t>
+  </si>
+  <si>
+    <t>200,000</t>
+  </si>
+  <si>
+    <t>2111407 - B CARD FJ G AR LR03 2B R2</t>
+  </si>
+  <si>
+    <t>4,385</t>
+  </si>
+  <si>
+    <t>4,885</t>
+  </si>
+  <si>
+    <t>2020-01-30</t>
+  </si>
+  <si>
+    <t>2111410 - BC MAXELL SEVEN LR03 4B R2</t>
+  </si>
+  <si>
+    <t>3,150</t>
+  </si>
+  <si>
+    <t>059711-21</t>
+  </si>
+  <si>
+    <t>7,000</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>2111411 - BC MAXELL SEVEN LR03 4B+2 R2</t>
+  </si>
+  <si>
+    <t>4,200</t>
+  </si>
+  <si>
+    <t>5,000</t>
+  </si>
+  <si>
+    <t>2020-05-19</t>
+  </si>
+  <si>
+    <t>2111419 - B CARD MAXELL DX ARB LR03 2BR2</t>
+  </si>
+  <si>
+    <t>2020-05-27</t>
+  </si>
+  <si>
+    <t>6,275</t>
+  </si>
+  <si>
+    <t>2111420 - B CARD MAXELL DX ARB LR03 4BR2</t>
+  </si>
+  <si>
+    <t>2111427 - B CARD X POWER LR03 2B R1</t>
+  </si>
+  <si>
+    <t>30,000</t>
+  </si>
+  <si>
+    <t>2020-04-15</t>
+  </si>
+  <si>
+    <t>2020-04-29</t>
+  </si>
+  <si>
+    <t>2112194 - INNER FJ G AR LR03 2B R1</t>
+  </si>
+  <si>
+    <t>2020-01-23</t>
+  </si>
+  <si>
+    <t>2020-01-28</t>
+  </si>
+  <si>
+    <t>2112252 - INNER FJ PREMIUM LR03 4B</t>
+  </si>
+  <si>
+    <t>2,742</t>
+  </si>
+  <si>
+    <t>400155 - ADVINDO KIKAKU, PT</t>
+  </si>
+  <si>
+    <t>AD/2019/10/150</t>
+  </si>
+  <si>
+    <t>3,000</t>
+  </si>
+  <si>
+    <t>2019-10-29</t>
+  </si>
+  <si>
+    <t>2020-04-13</t>
+  </si>
+  <si>
+    <t>2112289 - INNER MAXELL V LR03 4B R1</t>
+  </si>
+  <si>
+    <t>059510-20</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-06-10</t>
+  </si>
+  <si>
+    <t>2112290 - INNER MAXELL V LR03 4B+2 R1</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
+    <t>2112301 - INNER X POWER LR03 2B R1</t>
+  </si>
+  <si>
+    <t>5,100</t>
+  </si>
+  <si>
+    <t>2114220 - OUTER FJ G AR LR03 2B R1</t>
+  </si>
+  <si>
+    <t>400094 - ORIENTAL ASAHI JP CARTON BOX, PT</t>
+  </si>
+  <si>
+    <t>01-2020-01335</t>
+  </si>
+  <si>
+    <t>2020-01-13</t>
+  </si>
+  <si>
+    <t>2020-01-27</t>
+  </si>
+  <si>
+    <t>2114288 - OUTER FJ PREMIUM LR03 4B</t>
+  </si>
+  <si>
+    <t>400132 - DIFA  KREASI, PT</t>
+  </si>
+  <si>
+    <t>01216*</t>
+  </si>
+  <si>
+    <t>2020-03-06</t>
+  </si>
+  <si>
+    <t>2114320 - OUTER MAXELL V LR03 4B R1</t>
+  </si>
+  <si>
+    <t>05-2020-00660</t>
+  </si>
+  <si>
+    <t>2114321 - OUTER MAXELL V LR03 4B+2 R1</t>
+  </si>
+  <si>
+    <t>05-2020-00659</t>
+  </si>
+  <si>
+    <t>2114366 - OUTER X POWER LR03 2B R2</t>
+  </si>
+  <si>
+    <t>04-2020-01376</t>
+  </si>
+  <si>
+    <t>2020-04-28</t>
+  </si>
+  <si>
+    <t>2115026 - B FILM LR03 8B</t>
+  </si>
+  <si>
+    <t>400084 - WIRA MANDIRI MAKMUR, PT</t>
+  </si>
+  <si>
+    <t>SJ/WM/18/3173</t>
+  </si>
+  <si>
+    <t>2018-11-27</t>
+  </si>
+  <si>
+    <t>2020-03-19</t>
+  </si>
+  <si>
+    <t>2121047 - ETIKET TOPRUN V LR03 10S R1</t>
+  </si>
+  <si>
+    <t>23,482</t>
+  </si>
+  <si>
+    <t>1,000</t>
+  </si>
+  <si>
+    <t>2020-09-24</t>
+  </si>
+  <si>
+    <t>8,024</t>
+  </si>
+  <si>
+    <t>2123103 - INNER FJ HIGHPOWER LR03 2S</t>
+  </si>
+  <si>
+    <t>AD/2020/06/046</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>2,896</t>
+  </si>
+  <si>
+    <t>2125224 - OUTER  TOPRUN V LR03 10S R1</t>
+  </si>
+  <si>
+    <t>09-2020-02364</t>
+  </si>
+  <si>
+    <t>2020-09-18</t>
+  </si>
+  <si>
+    <t>2150002 - PVC SHRINK ROLL LR03</t>
+  </si>
+  <si>
+    <t>400023 - OMNI KEMAS INDUSTRY, PT.</t>
+  </si>
+  <si>
+    <t>19.12.095.C</t>
+  </si>
+  <si>
+    <t>2019-12-06</t>
+  </si>
+  <si>
+    <t>2019-10-21</t>
+  </si>
+  <si>
+    <t>2150007 - PET SHRNK ROLL LR03 0.05XL53MM</t>
+  </si>
+  <si>
+    <t>17,000</t>
+  </si>
+  <si>
+    <t>400077 - OHGITANI (S) PTE, LTD</t>
+  </si>
+  <si>
+    <t>FI2019-34/1</t>
+  </si>
+  <si>
+    <t>2019-05-08</t>
+  </si>
+  <si>
+    <t>2019-07-16</t>
+  </si>
+  <si>
+    <t>2211504 - B CARD FJ G AR LR6 2B R2</t>
+  </si>
+  <si>
+    <t>3,360</t>
+  </si>
+  <si>
+    <t>2020-01-20</t>
+  </si>
+  <si>
+    <t>5,760</t>
+  </si>
+  <si>
+    <t>2020-01-24</t>
+  </si>
+  <si>
+    <t>2211508 - BC MAXELL SEVEN LR6 4B R2</t>
+  </si>
+  <si>
+    <t>2211509 - BC MAXELL SEVEN LR6 4B+2 R2</t>
   </si>
   <si>
     <t>4,000</t>
   </si>
   <si>
+    <t>2211518 - B CARD MAXELL DX ARB LR6 4B R2</t>
+  </si>
+  <si>
+    <t>2020-05-12</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2211526 - B CARD X POWER LR6 2B R1</t>
+  </si>
+  <si>
+    <t>2212270 - INNER FJ G AR LR6 2B R1</t>
+  </si>
+  <si>
+    <t>2212370 - INNER MAXELL V LR6 4B R1</t>
+  </si>
+  <si>
+    <t>059400-20</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-06-09</t>
+  </si>
+  <si>
+    <t>2212371 - INNER MAXELL V LR6 4B+2 R1</t>
+  </si>
+  <si>
+    <t>1,500</t>
+  </si>
+  <si>
+    <t>2212380 - INNER X POWER LR6 2B R1</t>
+  </si>
+  <si>
+    <t>2214308 - OUTER FJ G AR LR6 2B R1</t>
+  </si>
+  <si>
+    <t>01-2020-01506</t>
+  </si>
+  <si>
+    <t>2214406 - OUTER FJ UNIV POWER LR6 20B</t>
+  </si>
+  <si>
+    <t>03-2020-00519</t>
+  </si>
+  <si>
     <t>2020-03-04</t>
   </si>
   <si>
-    <t>3,680</t>
-  </si>
-  <si>
-    <t>2020-04-13</t>
-  </si>
-  <si>
-    <t>2111407 - B CARD FJ G AR LR03 2B R2</t>
-  </si>
-  <si>
-    <t>4,385</t>
-  </si>
-  <si>
-    <t>4,885</t>
-  </si>
-  <si>
-    <t>2020-01-30</t>
-  </si>
-  <si>
-    <t>2112194 - INNER FJ G AR LR03 2B R1</t>
-  </si>
-  <si>
-    <t>2020-01-23</t>
-  </si>
-  <si>
-    <t>2020-01-28</t>
-  </si>
-  <si>
-    <t>2112252 - INNER FJ PREMIUM LR03 4B</t>
-  </si>
-  <si>
-    <t>2,742</t>
-  </si>
-  <si>
-    <t>400155 - ADVINDO KIKAKU, PT</t>
-  </si>
-  <si>
-    <t>AD/2019/10/150</t>
-  </si>
-  <si>
-    <t>3,000</t>
-  </si>
-  <si>
-    <t>2019-10-29</t>
-  </si>
-  <si>
-    <t>2114220 - OUTER FJ G AR LR03 2B R1</t>
-  </si>
-  <si>
-    <t>400094 - ORIENTAL ASAHI JP CARTON BOX, PT</t>
-  </si>
-  <si>
-    <t>01-2020-01335</t>
-  </si>
-  <si>
-    <t>2020-01-13</t>
-  </si>
-  <si>
-    <t>2020-01-27</t>
-  </si>
-  <si>
-    <t>2114288 - OUTER FJ PREMIUM LR03 4B</t>
-  </si>
-  <si>
-    <t>400132 - DIFA  KREASI, PT</t>
-  </si>
-  <si>
-    <t>01216*</t>
-  </si>
-  <si>
-    <t>2020-03-06</t>
-  </si>
-  <si>
-    <t>2115026 - B FILM LR03 8B</t>
-  </si>
-  <si>
-    <t>400084 - WIRA MANDIRI MAKMUR, PT</t>
-  </si>
-  <si>
-    <t>SJ/WM/18/3173</t>
-  </si>
-  <si>
-    <t>2018-11-27</t>
-  </si>
-  <si>
-    <t>2020-03-19</t>
-  </si>
-  <si>
-    <t>2125178 - OUTER FUMAKILLA V2  LR03 2S R1</t>
-  </si>
-  <si>
-    <t>2020-01-06</t>
-  </si>
-  <si>
-    <t>2020-02-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2125218 - OUT FJR-SPEC JEE(SONY)LR03 2S </t>
-  </si>
-  <si>
-    <t>2019-06-19</t>
-  </si>
-  <si>
-    <t>2020-03-12</t>
-  </si>
-  <si>
-    <t>2126001 - LAYER SANYO LR03 2S</t>
-  </si>
-  <si>
-    <t>2126010 - TRAY FUMAKILLA LR03 2S</t>
-  </si>
-  <si>
-    <t>5,000</t>
+    <t>2214433 - OUTER MAXELL V LR6 4B R1</t>
+  </si>
+  <si>
+    <t>12-2020-00632</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>2214483 - OUTER X POWER LR6 2B R2</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2215147 - BARCODE FJ HIGH POWER LR6 4S</t>
+  </si>
+  <si>
+    <t>400154 - AGNIPRIMA INTERNUSA, PT</t>
+  </si>
+  <si>
+    <t>113/ST/0919</t>
+  </si>
+  <si>
+    <t>2019-09-16</t>
+  </si>
+  <si>
+    <t>1,200</t>
+  </si>
+  <si>
+    <t>2216164 - B FILM PVC LR6 16B+4</t>
+  </si>
+  <si>
+    <t>1,820</t>
+  </si>
+  <si>
+    <t>400005 - TOPLA ABADI JAYA, PT.</t>
+  </si>
+  <si>
+    <t>TAJVDO20030095</t>
+  </si>
+  <si>
+    <t>1,958</t>
+  </si>
+  <si>
+    <t>2020-06-11</t>
+  </si>
+  <si>
+    <t>2216169 - SPACER PVC LR6 16B+4</t>
+  </si>
+  <si>
+    <t>2,484</t>
+  </si>
+  <si>
+    <t>TAJVDO20030047</t>
+  </si>
+  <si>
+    <t>3,500</t>
+  </si>
+  <si>
+    <t>2225239 - OUTER FJ UNIV POWER LR6 2S KC</t>
+  </si>
+  <si>
+    <t>00665,</t>
+  </si>
+  <si>
+    <t>2020-02-07</t>
   </si>
   <si>
     <t>2020-02-12</t>
   </si>
   <si>
-    <t>2143044 - OUT FJ LONGLIFE JEC LR03 BK</t>
-  </si>
-  <si>
-    <t>2020-03-02</t>
-  </si>
-  <si>
-    <t>2020-04-08</t>
-  </si>
-  <si>
-    <t>2145001 - PE 320 X 315 LR03 BULK</t>
+    <t>2245006 - PE 350 X 362 LR6 BULK</t>
   </si>
   <si>
     <t>400159 - ELFRIDA PLASTIK INDUSTRI, PT</t>
   </si>
   <si>
-    <t>PO9-537/20</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>2019-09-30</t>
-  </si>
-  <si>
-    <t>2150002 - PVC SHRINK ROLL LR03</t>
-  </si>
-  <si>
-    <t>400023 - OMNI KEMAS INDUSTRY, PT.</t>
-  </si>
-  <si>
-    <t>19.12.095.C</t>
-  </si>
-  <si>
-    <t>2019-12-06</t>
-  </si>
-  <si>
-    <t>2019-10-21</t>
-  </si>
-  <si>
-    <t>2150007 - PET SHRNK ROLL LR03 0.05XL53MM</t>
-  </si>
-  <si>
-    <t>17,000</t>
-  </si>
-  <si>
-    <t>400077 - OHGITANI (S) PTE, LTD</t>
-  </si>
-  <si>
-    <t>FI2019-34/1</t>
-  </si>
-  <si>
-    <t>2019-05-08</t>
-  </si>
-  <si>
-    <t>1,000</t>
-  </si>
-  <si>
-    <t>2019-07-16</t>
-  </si>
-  <si>
-    <t>2211504 - B CARD FJ G AR LR6 2B R2</t>
-  </si>
-  <si>
-    <t>3,360</t>
-  </si>
-  <si>
-    <t>2020-01-20</t>
-  </si>
-  <si>
-    <t>5,760</t>
-  </si>
-  <si>
-    <t>2020-01-24</t>
-  </si>
-  <si>
-    <t>2212270 - INNER FJ G AR LR6 2B R1</t>
-  </si>
-  <si>
-    <t>2214308 - OUTER FJ G AR LR6 2B R1</t>
-  </si>
-  <si>
-    <t>01-2020-01506</t>
-  </si>
-  <si>
-    <t>2020-01-14</t>
-  </si>
-  <si>
-    <t>2225239 - OUTER FJ UNIV POWER LR6 2S KC</t>
-  </si>
-  <si>
-    <t>00665,</t>
-  </si>
-  <si>
-    <t>2020-02-07</t>
-  </si>
-  <si>
-    <t>2245006 - PE 350 X 362 LR6 BULK</t>
-  </si>
-  <si>
     <t>P11-022/19</t>
   </si>
   <si>
@@ -392,21 +650,6 @@
     <t>2020-02-11</t>
   </si>
   <si>
-    <t>2250012 - PET BLISTER FILM PT200M</t>
-  </si>
-  <si>
-    <t>FI2019-74/1</t>
-  </si>
-  <si>
-    <t>2019-06-20</t>
-  </si>
-  <si>
-    <t>2,500</t>
-  </si>
-  <si>
-    <t>2020-01-29</t>
-  </si>
-  <si>
     <t>2250024 - PET SHRINK ROLL LR6 0.05XL62MM</t>
   </si>
   <si>
@@ -432,6 +675,18 @@
   </si>
   <si>
     <t>2019-07-19</t>
+  </si>
+  <si>
+    <t>2600194 - STRETCH FILM MCHN 20MIC(1200M)</t>
+  </si>
+  <si>
+    <t>400174 - TUNAS MITRA  SUKSES, PT.</t>
+  </si>
+  <si>
+    <t>18.07.498</t>
+  </si>
+  <si>
+    <t>2018-07-25</t>
   </si>
 </sst>
 </file>
@@ -823,10 +1078,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -837,7 +1092,7 @@
     <col min="4" max="4" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="69.554443" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="34.134521" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="9.283447" bestFit="true" customWidth="true" style="0"/>
@@ -928,25 +1183,25 @@
         <v>0.0046</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4">
         <v>200</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -954,22 +1209,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.0046</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.0041</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G4" s="3">
-        <v>200</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>29</v>
@@ -995,28 +1250,28 @@
         <v>33</v>
       </c>
       <c r="D5" s="4">
-        <v>0.0041</v>
+        <v>0.0046</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="4">
-        <v>200</v>
+      <c r="G5" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1026,32 +1281,32 @@
       <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="3">
-        <v>300</v>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D6" s="3">
-        <v>0.2379</v>
+        <v>0.007</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="3">
-        <v>55363</v>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1059,34 +1314,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4">
-        <v>0.0246</v>
+        <v>0.0041</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="4">
-        <v>54757</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="4">
+        <v>200</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1094,34 +1349,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="3">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D8" s="3">
-        <v>0.1028</v>
+        <v>0.0041</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="3">
-        <v>54653</v>
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G8" s="3">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="3">
-        <v>33</v>
+      <c r="J8" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1129,34 +1384,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D9" s="4">
-        <v>0.0908</v>
+        <v>0.0041</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="4">
-        <v>368</v>
+      <c r="J9" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1164,34 +1419,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="3">
-        <v>4</v>
+        <v>60</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D10" s="3">
-        <v>0.4101</v>
+        <v>0.0056</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="3">
+        <v>56172</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" s="3">
-        <v>546</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="3">
-        <v>45</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1199,34 +1454,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="4">
-        <v>7</v>
+        <v>65</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D11" s="4">
-        <v>0.616</v>
+        <v>0.0246</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="4">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="F11" s="4">
+        <v>54757</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="4">
-        <v>23</v>
+      <c r="J11" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1234,34 +1489,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="3">
-        <v>570</v>
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D12" s="3">
-        <v>0.0429</v>
+        <v>0.1325</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="3">
-        <v>200</v>
+        <v>71</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="3">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1269,31 +1524,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="4">
-        <v>12</v>
+        <v>74</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="D13" s="4">
-        <v>0.5939</v>
+        <v>0.0708</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="4">
+        <v>56517</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="4">
         <v>63</v>
-      </c>
-      <c r="F13" s="4">
-        <v>64</v>
-      </c>
-      <c r="G13" s="4">
-        <v>950</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="4">
-        <v>80</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>73</v>
@@ -1304,34 +1559,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C14" s="3">
-        <v>27</v>
+        <v>985</v>
       </c>
       <c r="D14" s="3">
-        <v>0.742</v>
+        <v>0.0981</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F14" s="3">
-        <v>3003</v>
-      </c>
-      <c r="G14" s="3">
-        <v>100</v>
+        <v>56524</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="3">
-        <v>1</v>
+      <c r="J14" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1339,34 +1594,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C15" s="4">
-        <v>18</v>
+        <v>920</v>
       </c>
       <c r="D15" s="4">
-        <v>0.0813</v>
+        <v>0.1384</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F15" s="4">
-        <v>64</v>
-      </c>
-      <c r="G15" s="4">
-        <v>900</v>
+        <v>56365</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J15" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1374,34 +1629,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C16" s="3">
-        <v>320</v>
+        <v>800</v>
       </c>
       <c r="D16" s="3">
-        <v>0.0297</v>
+        <v>0.0271</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="3">
-        <v>55007</v>
+        <v>55977</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J16" s="3">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1409,34 +1664,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C17" s="4">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D17" s="4">
-        <v>0.6136</v>
+        <v>0.1028</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F17" s="4">
-        <v>1114</v>
+        <v>54653</v>
       </c>
       <c r="G17" s="4">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="4">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1444,34 +1699,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="3">
-        <v>600</v>
+        <v>89</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="D18" s="3">
-        <v>2.0714</v>
+        <v>0.0908</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="3">
-        <v>200</v>
+        <v>92</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J18" s="3">
-        <v>25</v>
+        <v>368</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1479,34 +1734,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>27</v>
+        <v>96</v>
+      </c>
+      <c r="C19" s="4">
+        <v>633</v>
       </c>
       <c r="D19" s="4">
-        <v>0.0138</v>
+        <v>0.2823</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>36</v>
+        <v>97</v>
+      </c>
+      <c r="G19" s="4">
+        <v>500</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>79</v>
+      <c r="J19" s="4">
+        <v>500</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1514,34 +1769,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="C20" s="3">
+        <v>395</v>
       </c>
       <c r="D20" s="3">
-        <v>0.1615</v>
+        <v>0.2987</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>97</v>
+        <v>39</v>
+      </c>
+      <c r="F20" s="3">
+        <v>56516</v>
       </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>99</v>
+      <c r="J20" s="3">
+        <v>5</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1549,34 +1804,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="C21" s="4">
+        <v>90</v>
+      </c>
       <c r="D21" s="4">
-        <v>0.031</v>
+        <v>0.1471</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="4">
-        <v>54582</v>
+        <v>55918</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>104</v>
+      <c r="J21" s="4">
+        <v>10</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1584,34 +1839,34 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.4101</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="3">
-        <v>380</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.1196</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="3">
-        <v>54583</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>79</v>
+      <c r="G22" s="3">
+        <v>546</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="3">
-        <v>576</v>
+        <v>45</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1619,34 +1874,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C23" s="4">
         <v>7</v>
       </c>
       <c r="D23" s="4">
-        <v>0.6204</v>
+        <v>0.616</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G23" s="4">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="4">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1654,34 +1909,34 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C24" s="3">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D24" s="3">
-        <v>0.8725</v>
+        <v>0.6591</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G24" s="3">
         <v>50</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J24" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1689,34 +1944,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C25" s="4">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D25" s="4">
-        <v>2.0714</v>
+        <v>0.2325</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G25" s="4">
-        <v>100</v>
+        <v>920</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J25" s="4">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1726,32 +1981,32 @@
       <c r="B26" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="3">
+        <v>270</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.6526</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="3">
-        <v>0.1286</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3">
+        <v>520</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="3">
+        <v>48</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="G26" s="3">
-        <v>200</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1759,34 +2014,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="4">
+        <v>570</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.0429</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.396</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="G27" s="4">
         <v>200</v>
       </c>
       <c r="H27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="4">
+        <v>198</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1794,34 +2049,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.0317</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="3">
+        <v>58085</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="3">
-        <v>0.1888</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="I28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="3">
-        <v>200</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="K28" s="3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1829,34 +2084,909 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="4">
+        <v>104</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.0633</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="4">
+      <c r="I29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="3">
+        <v>312</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.135</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="3">
+        <v>220</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="3">
+        <v>201</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.0138</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.1615</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="3">
+        <v>200</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="D29" s="4">
+      <c r="B33" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.031</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="4">
+        <v>54582</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="3">
+        <v>600</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.1325</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="3">
+        <v>230</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.0708</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="4">
+        <v>56516</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="3">
+        <v>700</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.1384</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="3">
+        <v>56407</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="4">
+        <v>930</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.0271</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="4">
+        <v>55977</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="4">
+        <v>150</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="3">
+        <v>380</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.1196</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="3">
+        <v>54583</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="3">
+        <v>576</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="4">
+        <v>625</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.5907</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="4">
+        <v>550</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="4">
+        <v>480</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="3">
+        <v>117</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.3392</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="3">
+        <v>56367</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="3">
+        <v>2</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="4">
+        <v>102</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.171</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="4">
+        <v>56019</v>
+      </c>
+      <c r="G41" s="4">
+        <v>770</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="4">
+        <v>6</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="3">
+        <v>7</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.6204</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G42" s="3">
+        <v>296</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="3">
+        <v>36</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="4">
+        <v>50</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.6794</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="4">
+        <v>100</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="4">
+        <v>36</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="3">
+        <v>121</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="4">
+        <v>12</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.6696</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G45" s="4">
+        <v>310</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="4">
+        <v>1</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.004</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.0649</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="4">
+        <v>30</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.0128</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="3">
+        <v>864</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="4">
+        <v>31</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.8725</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G49" s="4">
+        <v>50</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="4">
+        <v>24</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" s="3">
+        <v>50</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2.0714</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G50" s="3">
+        <v>100</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="3">
+        <v>25</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.1286</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G51" s="4">
+        <v>200</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.1888</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G52" s="3">
+        <v>200</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="4">
+        <v>32</v>
+      </c>
+      <c r="D53" s="4">
         <v>6.7857</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F29" s="4">
+      <c r="E53" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F53" s="4">
         <v>160004255</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G53" s="4">
         <v>200</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="4">
+      <c r="H53" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="4">
         <v>12</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>135</v>
+      <c r="K53" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" s="3">
+        <v>4</v>
+      </c>
+      <c r="D54" s="3">
+        <v>26.0714</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G54" s="3">
+        <v>200</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
